--- a/biology/Botanique/Chlorobionta/Chlorobionta.xlsx
+++ b/biology/Botanique/Chlorobionta/Chlorobionta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viridiplantae
 Les Chlorobiontes (Chlorobionta), ou Plantes vertes (Viridiplantae), sont un sous-règne des Plantes au sens large (comprenant aussi les algues). Ils forment un groupe monophylétique comprenant la plupart des « algues vertes » et la totalité des plantes terrestres.
@@ -513,7 +525,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlorobiontes comptent des représentants aussi divers que les Chlamydomonas, la laitue de mer (Ulva lactuca), les acétabulaires (genre Acetabularia), les spirogyres (genre Spirogyra), les pleurocoques (genre Pleuroccus), le Welwitschia mirabilis, la pâquerette (Bellis perennis), le teck (Tectona grandis), le lys martagon (Lilium martagon), etc.
 </t>
@@ -544,7 +558,9 @@
           <t>Hors-groupe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En revanche, tous les « végétaux » ne sont pas des Chlorobiontes. D'autres organismes eucaryotes chlorophylliens peuvent appartenir à des groupes différents. Ainsi les Rhodobiontes, ou algues rouges, forment un groupe distinct mais voisin, tandis que les algues brunes et de nombreux organismes unicellulaires chlorophylliens appartiennent à des groupes plus distants.
 </t>
@@ -575,9 +591,11 @@
           <t>Sous-clades</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chlorobiontes se subdivisent en deux sous-clades principaux, les Chlorophyta, qui rassemblent la plupart des algues vertes, et les Streptophyta, qui rassemblent certaines algues vertes particulières, notamment les Charophyta, et toutes les plantes terrestres[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chlorobiontes se subdivisent en deux sous-clades principaux, les Chlorophyta, qui rassemblent la plupart des algues vertes, et les Streptophyta, qui rassemblent certaines algues vertes particulières, notamment les Charophyta, et toutes les plantes terrestres.
 Les Pleurastrophyceae se sont restreintes aux Trebouxiophyceae. Les Prasinophyceae et les Charophyta se sont révélées paraphylétiques, et constituent la base respectivement des Chlorophyta et des Streptophyta[réf. nécessaire]. Les Bryophyta et les Pteridophyta, au sens traditionnel, sont également paraphylétiques et constituent chacune plusieurs clades.
 </t>
         </is>
@@ -607,7 +625,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlorobiontes forment, avec les Rhodobionta ou Rhodophyta (algues rouges) et les Glaucophyta, le groupe des Archaeplastida.
 </t>
